--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/MINNESOTA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/MINNESOTA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1039"/>
+  <dimension ref="A1:D1033"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C28">
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="32">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C45">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C73">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C85">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C110">
@@ -2031,7 +2031,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C125">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C137">
@@ -2330,12 +2330,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C148">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C151">
@@ -2407,7 +2407,7 @@
         <v>6</v>
       </c>
       <c r="D153">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="154">
@@ -2439,14 +2439,14 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C156">
         <v>6</v>
       </c>
       <c r="D156">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="157">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C162">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C165">
@@ -2589,7 +2589,7 @@
         <v>6</v>
       </c>
       <c r="D167">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="168">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C170">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C173">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C181">
@@ -2868,20 +2868,20 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C189">
         <v>6</v>
       </c>
       <c r="D189">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C190">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C198">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C207">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C212">
@@ -3187,7 +3187,7 @@
         <v>6</v>
       </c>
       <c r="D213">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="214">
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="D220">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="221">
@@ -3302,14 +3302,14 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C222">
         <v>6</v>
       </c>
       <c r="D222">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="223">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C227">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C238">
@@ -3575,14 +3575,14 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C243">
         <v>6</v>
       </c>
       <c r="D243">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C247">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C252">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C259">
@@ -3834,13 +3834,13 @@
         <v>6</v>
       </c>
       <c r="D262">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C264">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C267">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,20 +3957,20 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C272">
         <v>6</v>
       </c>
       <c r="D272">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C273">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C283">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C290">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C294">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C307">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C309">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C312">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C315">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C326">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C331">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C335">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C348">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C353">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C356">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C360">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C365">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C367">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C370">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C374">
@@ -5391,13 +5391,13 @@
         <v>6</v>
       </c>
       <c r="D381">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C382">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C390">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C394">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C400">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C403">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C405">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C408">
@@ -5768,13 +5768,13 @@
         <v>6</v>
       </c>
       <c r="D410">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C412">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C414">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C421">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C424">
@@ -6007,7 +6007,7 @@
         <v>6</v>
       </c>
       <c r="D428">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="429">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C476">
@@ -6696,7 +6696,7 @@
         <v>6</v>
       </c>
       <c r="D481">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="482">
@@ -6980,7 +6980,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C503">
@@ -7019,7 +7019,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C506">
@@ -7084,7 +7084,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C511">
@@ -7117,7 +7117,7 @@
         <v>6</v>
       </c>
       <c r="D513">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="514">
@@ -7188,7 +7188,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C519">
@@ -7445,7 +7445,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C538">
@@ -7484,14 +7484,14 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C541">
         <v>6</v>
       </c>
       <c r="D541">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="542">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C549">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C551">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C557">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C562">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C568">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,20 +7866,20 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C570">
         <v>6</v>
       </c>
       <c r="D570">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C572">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C581">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C584">
@@ -8354,7 +8354,7 @@
         <v>6</v>
       </c>
       <c r="D607">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="608">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C617">
@@ -8640,7 +8640,7 @@
         <v>6</v>
       </c>
       <c r="D629">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="630">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C631">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C636">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C649">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C670">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,20 +9231,20 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C675">
         <v>6</v>
       </c>
       <c r="D675">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C676">
@@ -9431,7 +9431,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C690">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C697">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C702">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C703">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,14 +9743,14 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C714">
         <v>6</v>
       </c>
       <c r="D714">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C716">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C719">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C731">
@@ -10055,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C738">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C740">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C745">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C749">
@@ -10211,7 +10211,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C750">
@@ -10263,7 +10263,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C754">
@@ -10322,7 +10322,7 @@
         <v>6</v>
       </c>
       <c r="D758">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="759">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C772">
@@ -10515,7 +10515,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C773">
@@ -10554,7 +10554,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C776">
@@ -10593,7 +10593,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C779">
@@ -10632,7 +10632,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C782">
@@ -10759,7 +10759,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C791">
@@ -10772,7 +10772,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C792">
@@ -10811,7 +10811,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C795">
@@ -10915,7 +10915,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C803">
@@ -10993,7 +10993,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C809">
@@ -11006,7 +11006,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C810">
@@ -11045,7 +11045,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C813">
@@ -11058,7 +11058,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C814">
@@ -11071,7 +11071,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C815">
@@ -11393,7 +11393,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C839">
@@ -11483,7 +11483,7 @@
         <v>6</v>
       </c>
       <c r="D845">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="846">
@@ -11941,7 +11941,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C880">
@@ -11967,7 +11967,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C882">
@@ -11993,7 +11993,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C884">
@@ -12154,7 +12154,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C896">
@@ -12193,7 +12193,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C899">
@@ -12278,7 +12278,7 @@
         <v>6</v>
       </c>
       <c r="D905">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="906">
@@ -12297,7 +12297,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C907">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C910">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C912">
@@ -12427,7 +12427,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C917">
@@ -12564,13 +12564,13 @@
         <v>6</v>
       </c>
       <c r="D927">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C928">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C931">
@@ -12622,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C932">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C939">
@@ -12765,7 +12765,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C943">
@@ -12804,7 +12804,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C946">
@@ -12843,7 +12843,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C949">
@@ -12869,7 +12869,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C951">
@@ -12915,7 +12915,7 @@
         <v>6</v>
       </c>
       <c r="D954">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="955">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C957">
@@ -12986,7 +12986,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C960">
@@ -13038,7 +13038,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C964">
@@ -13090,7 +13090,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C968">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C983">
@@ -13376,7 +13376,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C990">
@@ -13466,7 +13466,7 @@
         <v>6</v>
       </c>
       <c r="D996">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="997">
@@ -13516,7 +13516,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1000">
@@ -13575,7 +13575,7 @@
         <v>6</v>
       </c>
       <c r="D1004">
-        <v>0.0009310986964618249</v>
+        <v>0.0009310986964618248</v>
       </c>
     </row>
     <row r="1005">
@@ -13646,7 +13646,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1010">
@@ -13698,7 +13698,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1014">
@@ -13802,7 +13802,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1022">
@@ -13815,7 +13815,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1023">
@@ -13828,7 +13828,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1024">
@@ -13867,7 +13867,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1027">
@@ -13953,41 +13953,6 @@
       </c>
       <c r="D1033">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
